--- a/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2134651162258739</v>
+        <v>0.2126129767404145</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3770420685121533</v>
+        <v>0.3762791458968595</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3038314347536618</v>
+        <v>0.3037556242967709</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2761394352667783</v>
+        <v>0.2751039327254245</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4339208576257844</v>
+        <v>0.4321320620922463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3476798439253327</v>
+        <v>0.3491022625701996</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1787347810559997</v>
+        <v>0.1833269734617601</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3760201573887801</v>
+        <v>0.378762070764686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2887388978015303</v>
+        <v>0.2873759332946409</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2326689348605816</v>
+        <v>0.2356636141574056</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4313379651297477</v>
+        <v>0.4324083125388959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3268207255477754</v>
+        <v>0.3248265075300275</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2068420039042322</v>
+        <v>0.2109059991500823</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3931445563714455</v>
+        <v>0.3931815677400102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3095495454827487</v>
+        <v>0.3084695189388708</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.275493173936329</v>
+        <v>0.2748268002587196</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.45793750003823</v>
+        <v>0.4567630969428635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3586613317361229</v>
+        <v>0.356121720057904</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.2355261568894467</v>
+        <v>0.2355261568894468</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.3922510414044614</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2059030655209617</v>
+        <v>0.2083967325345084</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3687164296520286</v>
+        <v>0.3686632529677125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2999430818670971</v>
+        <v>0.2985555312541082</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2614990093391804</v>
+        <v>0.2648788053757267</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4192808403437477</v>
+        <v>0.4198667543867949</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3372932107349918</v>
+        <v>0.3386560063794826</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.4055073583044776</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3197644847210012</v>
+        <v>0.3197644847210011</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2142706609707715</v>
+        <v>0.2149531800210417</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3911867257992023</v>
+        <v>0.3917298650096089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.309125408094979</v>
+        <v>0.3087622451267478</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2446200034379024</v>
+        <v>0.2441449508816937</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4186926124726777</v>
+        <v>0.4190250512978294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3310578385513819</v>
+        <v>0.3290108820829493</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>147442</v>
+        <v>146854</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>276817</v>
+        <v>276257</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>432926</v>
+        <v>432818</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>190732</v>
+        <v>190017</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>318576</v>
+        <v>317263</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>495405</v>
+        <v>497432</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>187478</v>
+        <v>192295</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>402896</v>
+        <v>405834</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>612239</v>
+        <v>609349</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>244050</v>
+        <v>247192</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>462167</v>
+        <v>463314</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>692988</v>
+        <v>688759</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>166109</v>
+        <v>169373</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>319335</v>
+        <v>319365</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>500025</v>
+        <v>498281</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>221241</v>
+        <v>220706</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>371964</v>
+        <v>371010</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>579357</v>
+        <v>575255</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>203857</v>
+        <v>206326</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>412609</v>
+        <v>412549</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>632611</v>
+        <v>629685</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>258900</v>
+        <v>262246</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>469192</v>
+        <v>469848</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>711386</v>
+        <v>714261</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>756967</v>
+        <v>759378</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1461847</v>
+        <v>1463876</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2247254</v>
+        <v>2244614</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>864184</v>
+        <v>862506</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1564635</v>
+        <v>1565877</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2406696</v>
+        <v>2391816</v>
       </c>
     </row>
     <row r="24">
